--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78959911964665</v>
+        <v>2.922188</v>
       </c>
       <c r="N2">
-        <v>2.78959911964665</v>
+        <v>8.766564000000001</v>
       </c>
       <c r="O2">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="P2">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="Q2">
-        <v>202.7891964777728</v>
+        <v>289.041729996076</v>
       </c>
       <c r="R2">
-        <v>202.7891964777728</v>
+        <v>2601.375569964684</v>
       </c>
       <c r="S2">
-        <v>0.03588474077971868</v>
+        <v>0.03975272366786688</v>
       </c>
       <c r="T2">
-        <v>0.03588474077971868</v>
+        <v>0.03975272366786688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.3304064141021</v>
+        <v>32.47988333333333</v>
       </c>
       <c r="N3">
-        <v>32.3304064141021</v>
+        <v>97.43965</v>
       </c>
       <c r="O3">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="P3">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="Q3">
-        <v>2350.250647966242</v>
+        <v>3212.675457136017</v>
       </c>
       <c r="R3">
-        <v>2350.250647966242</v>
+        <v>28914.07911422415</v>
       </c>
       <c r="S3">
-        <v>0.4158906723558055</v>
+        <v>0.4418483091828982</v>
       </c>
       <c r="T3">
-        <v>0.4158906723558055</v>
+        <v>0.4418483091828982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0206980383222</v>
+        <v>24.293405</v>
       </c>
       <c r="N4">
-        <v>24.0206980383222</v>
+        <v>72.88021499999999</v>
       </c>
       <c r="O4">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="P4">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="Q4">
-        <v>1746.1785170923</v>
+        <v>2402.928151335685</v>
       </c>
       <c r="R4">
-        <v>1746.1785170923</v>
+        <v>21626.35336202116</v>
       </c>
       <c r="S4">
-        <v>0.3089965566673513</v>
+        <v>0.3304814802868862</v>
       </c>
       <c r="T4">
-        <v>0.3089965566673513</v>
+        <v>0.3304814802868862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78959911964665</v>
+        <v>2.922188</v>
       </c>
       <c r="N5">
-        <v>2.78959911964665</v>
+        <v>8.766564000000001</v>
       </c>
       <c r="O5">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="P5">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="Q5">
-        <v>47.48760054316713</v>
+        <v>49.81928057306135</v>
       </c>
       <c r="R5">
-        <v>47.48760054316713</v>
+        <v>448.3735251575521</v>
       </c>
       <c r="S5">
-        <v>0.008403210157840737</v>
+        <v>0.006851786051722437</v>
       </c>
       <c r="T5">
-        <v>0.008403210157840737</v>
+        <v>0.006851786051722437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.3304064141021</v>
+        <v>32.47988333333333</v>
       </c>
       <c r="N6">
-        <v>32.3304064141021</v>
+        <v>97.43965</v>
       </c>
       <c r="O6">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="P6">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="Q6">
-        <v>550.3634606056228</v>
+        <v>553.7372752073557</v>
       </c>
       <c r="R6">
-        <v>550.3634606056228</v>
+        <v>4983.6354768662</v>
       </c>
       <c r="S6">
-        <v>0.09739005066094042</v>
+        <v>0.07615704793288637</v>
       </c>
       <c r="T6">
-        <v>0.09739005066094042</v>
+        <v>0.07615704793288637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.0206980383222</v>
+        <v>24.293405</v>
       </c>
       <c r="N7">
-        <v>24.0206980383222</v>
+        <v>72.88021499999999</v>
       </c>
       <c r="O7">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="P7">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="Q7">
-        <v>408.9065361321057</v>
+        <v>414.1690951335133</v>
       </c>
       <c r="R7">
-        <v>408.9065361321057</v>
+        <v>3727.52185620162</v>
       </c>
       <c r="S7">
-        <v>0.07235841606503733</v>
+        <v>0.05696184281361914</v>
       </c>
       <c r="T7">
-        <v>0.07235841606503733</v>
+        <v>0.05696184281361914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78959911964665</v>
+        <v>2.922188</v>
       </c>
       <c r="N8">
-        <v>2.78959911964665</v>
+        <v>8.766564000000001</v>
       </c>
       <c r="O8">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="P8">
-        <v>0.04716885243421472</v>
+        <v>0.04895158192025818</v>
       </c>
       <c r="Q8">
-        <v>16.28033774089646</v>
+        <v>17.065542853744</v>
       </c>
       <c r="R8">
-        <v>16.28033774089646</v>
+        <v>153.589885683696</v>
       </c>
       <c r="S8">
-        <v>0.002880901496655295</v>
+        <v>0.002347072200668864</v>
       </c>
       <c r="T8">
-        <v>0.002880901496655295</v>
+        <v>0.002347072200668864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.3304064141021</v>
+        <v>32.47988333333333</v>
       </c>
       <c r="N9">
-        <v>32.3304064141021</v>
+        <v>97.43965</v>
       </c>
       <c r="O9">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="P9">
-        <v>0.546669289699997</v>
+        <v>0.5440928748431295</v>
       </c>
       <c r="Q9">
-        <v>188.6830018030327</v>
+        <v>189.6821289080667</v>
       </c>
       <c r="R9">
-        <v>188.6830018030327</v>
+        <v>1707.1391601726</v>
       </c>
       <c r="S9">
-        <v>0.03338856668325109</v>
+        <v>0.02608751772734493</v>
       </c>
       <c r="T9">
-        <v>0.03338856668325109</v>
+        <v>0.02608751772734492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0206980383222</v>
+        <v>24.293405</v>
       </c>
       <c r="N10">
-        <v>24.0206980383222</v>
+        <v>72.88021499999999</v>
       </c>
       <c r="O10">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="P10">
-        <v>0.4061618578657883</v>
+        <v>0.4069555432366123</v>
       </c>
       <c r="Q10">
-        <v>140.1868369120756</v>
+        <v>141.87319367914</v>
       </c>
       <c r="R10">
-        <v>140.1868369120756</v>
+        <v>1276.85874311226</v>
       </c>
       <c r="S10">
-        <v>0.02480688513339969</v>
+        <v>0.01951222013610691</v>
       </c>
       <c r="T10">
-        <v>0.02480688513339969</v>
+        <v>0.0195122201361069</v>
       </c>
     </row>
   </sheetData>
